--- a/chooseschool/excel/2022南京信息工程大学.xlsx
+++ b/chooseschool/excel/2022南京信息工程大学.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\cxm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\chooseschool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F0533-1BB5-4D8C-98B7-A179C7C0AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95556F1-BC92-485F-A1F0-104B43066F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="126">
   <si>
     <t>初试总分</t>
   </si>
@@ -395,13 +395,17 @@
   </si>
   <si>
     <t>录取成绩</t>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -426,6 +430,13 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,16 +456,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,15 +473,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A70" sqref="A52:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,10 +841,10 @@
     <col min="4" max="4" width="6.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -849,8 +866,11 @@
       <c r="G1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,17 +883,20 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>232</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>266</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>498</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -886,17 +909,20 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>235</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>261</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>496</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -909,17 +935,20 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>231</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>263</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -932,17 +961,20 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>227</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>267</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -955,17 +987,20 @@
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>223</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>265</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>488</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,17 +1013,20 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>222</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>265</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>487</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1001,17 +1039,20 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>226</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>260</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>486</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1024,17 +1065,20 @@
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>231</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>253</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>484</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,17 +1091,20 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>229</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>254</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>483</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1070,17 +1117,20 @@
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>215</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>265</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,17 +1143,20 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>214</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>266</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1116,17 +1169,20 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>216</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>264</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,17 +1195,20 @@
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>211</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>264</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>475</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1162,17 +1221,20 @@
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>216</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>258</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>474</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1185,17 +1247,20 @@
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>225</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>249</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>474</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1273,20 @@
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>216</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>257</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>473</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1231,17 +1299,20 @@
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>212</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>261</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>473</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,17 +1325,20 @@
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>217</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>256</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>473</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,17 +1351,20 @@
       <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>216</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>254</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1300,17 +1377,20 @@
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>216</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>253</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>469</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1323,17 +1403,20 @@
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>218</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>250</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>468</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1346,17 +1429,20 @@
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>224</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>243</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>467</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1369,17 +1455,20 @@
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>208</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>255</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>463</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1392,17 +1481,20 @@
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>213</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>250</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>463</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1415,17 +1507,20 @@
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>216</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>245</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>461</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1438,17 +1533,20 @@
       <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>217</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>242</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>459</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1461,17 +1559,20 @@
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>206</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>252</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>458</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1484,17 +1585,20 @@
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>206</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>250</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>456</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1507,17 +1611,20 @@
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>207</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>249</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>456</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1530,17 +1637,20 @@
       <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>215</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>238</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>453</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1553,17 +1663,20 @@
       <c r="D32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>244</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>277</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>521</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1576,17 +1689,20 @@
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>239</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>279</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>518</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1599,17 +1715,20 @@
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>237</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>273</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1622,17 +1741,20 @@
       <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>235</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>275</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1645,17 +1767,20 @@
       <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>251</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>258</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>509</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1668,17 +1793,20 @@
       <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>237</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>270</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>507</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1691,17 +1819,20 @@
       <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>239</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>267</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="3">
         <v>506</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1714,17 +1845,20 @@
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>247</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>255</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>502</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,17 +1871,20 @@
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>235</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>267</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="3">
         <v>502</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,17 +1897,20 @@
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>229</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>268</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>497</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1783,17 +1923,20 @@
       <c r="D42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>223</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>271</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,17 +1949,20 @@
       <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>229</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>265</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1829,17 +1975,20 @@
       <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>231</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>263</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1852,17 +2001,20 @@
       <c r="D45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>230</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>260</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="3">
         <v>490</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1875,17 +2027,20 @@
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>229</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>260</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>489</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1898,17 +2053,20 @@
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>227</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>262</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="3">
         <v>489</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1921,17 +2079,20 @@
       <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>226</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>263</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="3">
         <v>489</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1944,17 +2105,20 @@
       <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>224</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>264</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="3">
         <v>488</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1967,17 +2131,20 @@
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>233</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>255</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="3">
         <v>488</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1990,17 +2157,20 @@
       <c r="D51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>223</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>264</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="3">
         <v>487</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2013,17 +2183,20 @@
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>198</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>270</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="3">
         <v>468</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -2036,17 +2209,20 @@
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>175</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>254</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="3">
         <v>429</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2059,17 +2235,20 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>197</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>231</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="3">
         <v>428</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2082,17 +2261,20 @@
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>180</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>243</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="3">
         <v>423</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2105,17 +2287,20 @@
       <c r="D56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>224</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>239</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="3">
         <v>463</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -2128,17 +2313,20 @@
       <c r="D57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>177</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>259</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="3">
         <v>436</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2151,17 +2339,20 @@
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>185</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>248</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="3">
         <v>433</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2174,17 +2365,20 @@
       <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>175</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>256</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="3">
         <v>431</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2197,17 +2391,20 @@
       <c r="D60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>181</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>249</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="3">
         <v>430</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -2220,17 +2417,20 @@
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>195</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>229</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="3">
         <v>424</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -2243,17 +2443,20 @@
       <c r="D62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>180</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>233</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="3">
         <v>413</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -2266,17 +2469,20 @@
       <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>171</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>236</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="3">
         <v>407</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -2289,17 +2495,20 @@
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>176</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>225</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="3">
         <v>401</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,17 +2521,20 @@
       <c r="D65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>173</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>212</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="3">
         <v>385</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="4">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
@@ -2335,17 +2547,20 @@
       <c r="D66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>253</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>278</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="3">
         <v>531</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -2358,17 +2573,20 @@
       <c r="D67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>252</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>279</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="3">
         <v>531</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,17 +2599,20 @@
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>255</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>276</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="3">
         <v>531</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -2404,17 +2625,20 @@
       <c r="D69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>249</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>278</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="3">
         <v>527</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>57</v>
       </c>
@@ -2427,17 +2651,20 @@
       <c r="D70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>235</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>290</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="3">
         <v>525</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>57</v>
       </c>
@@ -2450,17 +2677,20 @@
       <c r="D71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>242</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>278</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="3">
         <v>520</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>57</v>
       </c>
@@ -2473,17 +2703,20 @@
       <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>240</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>277</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="3">
         <v>517</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>57</v>
       </c>
@@ -2496,17 +2729,20 @@
       <c r="D73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>243</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>272</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="3">
         <v>515</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>57</v>
       </c>
@@ -2519,17 +2755,20 @@
       <c r="D74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>236</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>277</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="3">
         <v>513</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,17 +2781,20 @@
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>234</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>279</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="3">
         <v>513</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
@@ -2565,17 +2807,20 @@
       <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>241</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>272</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="3">
         <v>513</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>57</v>
       </c>
@@ -2588,17 +2833,20 @@
       <c r="D77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>242</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>269</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="3">
         <v>511</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -2611,17 +2859,20 @@
       <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>236</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>275</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="3">
         <v>511</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>57</v>
       </c>
@@ -2634,17 +2885,20 @@
       <c r="D79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>237</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>273</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>57</v>
       </c>
@@ -2657,17 +2911,20 @@
       <c r="D80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>235</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>275</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="3">
         <v>510</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
@@ -2680,17 +2937,20 @@
       <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>229</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>275</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="3">
         <v>504</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>57</v>
       </c>
@@ -2703,17 +2963,20 @@
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>231</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>271</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="3">
         <v>502</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>
@@ -2726,17 +2989,20 @@
       <c r="D83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>228</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>273</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="3">
         <v>501</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,17 +3015,20 @@
       <c r="D84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>233</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>268</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="3">
         <v>501</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>57</v>
       </c>
@@ -2772,17 +3041,20 @@
       <c r="D85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>229</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>271</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>57</v>
       </c>
@@ -2795,17 +3067,20 @@
       <c r="D86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>228</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>272</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>57</v>
       </c>
@@ -2818,17 +3093,20 @@
       <c r="D87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>219</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>281</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>57</v>
       </c>
@@ -2841,17 +3119,20 @@
       <c r="D88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>228</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>271</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="3">
         <v>499</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>57</v>
       </c>
@@ -2864,17 +3145,20 @@
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>221</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>278</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="3">
         <v>499</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>57</v>
       </c>
@@ -2887,17 +3171,20 @@
       <c r="D90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>228</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>271</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="3">
         <v>499</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>57</v>
       </c>
@@ -2910,17 +3197,20 @@
       <c r="D91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>233</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>265</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="3">
         <v>498</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>57</v>
       </c>
@@ -2933,17 +3223,20 @@
       <c r="D92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>229</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>268</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="3">
         <v>497</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>57</v>
       </c>
@@ -2956,17 +3249,20 @@
       <c r="D93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>223</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="3">
         <v>274</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="3">
         <v>497</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>57</v>
       </c>
@@ -2979,17 +3275,20 @@
       <c r="D94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>223</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="3">
         <v>273</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="3">
         <v>496</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>57</v>
       </c>
@@ -3002,17 +3301,20 @@
       <c r="D95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>225</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="3">
         <v>269</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>57</v>
       </c>
@@ -3025,17 +3327,20 @@
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>236</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>258</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="3">
         <v>494</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>57</v>
       </c>
@@ -3048,17 +3353,20 @@
       <c r="D97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>225</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>268</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="3">
         <v>493</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>57</v>
       </c>
@@ -3071,17 +3379,20 @@
       <c r="D98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>218</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>274</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
@@ -3094,17 +3405,20 @@
       <c r="D99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="3">
         <v>220</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="3">
         <v>272</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>57</v>
       </c>
@@ -3117,17 +3431,20 @@
       <c r="D100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>224</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="3">
         <v>268</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>57</v>
       </c>
@@ -3140,17 +3457,20 @@
       <c r="D101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="3">
         <v>234</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="3">
         <v>257</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="3">
         <v>491</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,17 +3483,20 @@
       <c r="D102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="3">
         <v>228</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="3">
         <v>263</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="3">
         <v>491</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>57</v>
       </c>
@@ -3186,17 +3509,20 @@
       <c r="D103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="3">
         <v>223</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="3">
         <v>267</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="3">
         <v>490</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>57</v>
       </c>
@@ -3209,17 +3535,20 @@
       <c r="D104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="3">
         <v>219</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="3">
         <v>270</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="3">
         <v>489</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>57</v>
       </c>
@@ -3232,17 +3561,20 @@
       <c r="D105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="3">
         <v>226</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="3">
         <v>262</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="3">
         <v>488</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
@@ -3255,17 +3587,20 @@
       <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="3">
         <v>220</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="3">
         <v>267</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="3">
         <v>487</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>57</v>
       </c>
@@ -3278,17 +3613,20 @@
       <c r="D107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="3">
         <v>218</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="3">
         <v>268</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="3">
         <v>486</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
@@ -3301,17 +3639,20 @@
       <c r="D108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="3">
         <v>228</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="3">
         <v>258</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="3">
         <v>486</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,17 +3665,20 @@
       <c r="D109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>223</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="3">
         <v>262</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="3">
         <v>485</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
@@ -3347,17 +3691,20 @@
       <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>220</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="3">
         <v>265</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="3">
         <v>485</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>57</v>
       </c>
@@ -3370,17 +3717,20 @@
       <c r="D111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="3">
         <v>219</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="3">
         <v>266</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="3">
         <v>485</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>57</v>
       </c>
@@ -3393,14 +3743,17 @@
       <c r="D112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>205</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="3">
         <v>244</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="3">
         <v>449</v>
+      </c>
+      <c r="H112" s="4">
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
